--- a/DATASET KOMODITAS GROCERY + KATEGORI.xlsx
+++ b/DATASET KOMODITAS GROCERY + KATEGORI.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137BA912-EFFA-4CEF-BF38-F63773228FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="209">
   <si>
     <t>komoditas</t>
   </si>
@@ -50,6 +34,9 @@
     <t>Anggur</t>
   </si>
   <si>
+    <t>Grape</t>
+  </si>
+  <si>
     <t>Kg</t>
   </si>
   <si>
@@ -59,13 +46,25 @@
     <t>Apel</t>
   </si>
   <si>
+    <t>Apple</t>
+  </si>
+  <si>
     <t>Jeruk</t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
   <si>
     <t>Pepaya *)</t>
   </si>
   <si>
+    <t>Papaya *)</t>
+  </si>
+  <si>
     <t>Pisang</t>
+  </si>
+  <si>
+    <t>Banana</t>
   </si>
   <si>
     <t>Sisir</t>
@@ -77,7 +76,13 @@
     <t>Semangka *)</t>
   </si>
   <si>
+    <t>Watermelon *)</t>
+  </si>
+  <si>
     <t>Kelapa</t>
+  </si>
+  <si>
+    <t>Coconut</t>
   </si>
   <si>
     <t>Butir</t>
@@ -89,10 +94,16 @@
     <t>Bawang Putih *)</t>
   </si>
   <si>
+    <t>Garlic *)</t>
+  </si>
+  <si>
     <t>BumbuDapur</t>
   </si>
   <si>
     <t>Penyedap Masakan/Vetsin *)</t>
+  </si>
+  <si>
+    <t>Monosodium Glutamate (MSG) *)</t>
   </si>
   <si>
     <t>Ons</t>
@@ -102,6 +113,9 @@
   </si>
   <si>
     <t>Bumbu Masak Jadi</t>
+  </si>
+  <si>
+    <t>Instant Seasoning</t>
   </si>
   <si>
     <t>Bungkus</t>
@@ -131,7 +145,13 @@
     <t>Kemiri *)</t>
   </si>
   <si>
+    <t>Candlenut *)</t>
+  </si>
+  <si>
     <t>Lada/Merica *)</t>
+  </si>
+  <si>
+    <t>Pepper *)</t>
   </si>
   <si>
     <t>Terasi Udang *)</t>
@@ -141,6 +161,9 @@
   </si>
   <si>
     <t>Ayam Hidup *)</t>
+  </si>
+  <si>
+    <t>Chicken (alive) *)</t>
   </si>
   <si>
     <t>Ekor</t>
@@ -153,6 +176,9 @@
   </si>
   <si>
     <t>Rempela Hati Ayam *)</t>
+  </si>
+  <si>
+    <t>Chicken Liver and Gizzard *)</t>
   </si>
   <si>
     <t>Biji</t>
@@ -185,6 +211,9 @@
     <t>Makanan Bayi *)</t>
   </si>
   <si>
+    <t>Meal for Baby *)</t>
+  </si>
+  <si>
     <t>Doos</t>
   </si>
   <si>
@@ -194,6 +223,9 @@
     <t>Tahu *)</t>
   </si>
   <si>
+    <t>Tofu *)</t>
+  </si>
+  <si>
     <t>Tempe *)</t>
   </si>
   <si>
@@ -201,6 +233,9 @@
   </si>
   <si>
     <t>Bahan Agar-Agar *)</t>
+  </si>
+  <si>
+    <t>Jelly Powder *)</t>
   </si>
   <si>
     <t>Emping *)</t>
@@ -266,6 +301,9 @@
     <t>Kue Basah</t>
   </si>
   <si>
+    <t>Cake</t>
+  </si>
+  <si>
     <t>Kue Kering Berminyak</t>
   </si>
   <si>
@@ -275,13 +313,22 @@
     <t>Makanan Ringan/Snack *)</t>
   </si>
   <si>
+    <t>Snack *)</t>
+  </si>
+  <si>
     <t>Martabak *)</t>
   </si>
   <si>
     <t>Bakso Siap Santap *)</t>
   </si>
   <si>
+    <t>Meatball with Noodles *)</t>
+  </si>
+  <si>
     <t>Nasi dengan Lauk</t>
+  </si>
+  <si>
+    <t>Retail of Rice with Side Dishes</t>
   </si>
   <si>
     <t>Roti Manis *)</t>
@@ -297,6 +344,9 @@
   </si>
   <si>
     <t>Sate *)</t>
+  </si>
+  <si>
+    <t>Satay *)</t>
   </si>
   <si>
     <t>Soto *)</t>
@@ -323,7 +373,13 @@
     <t>Es *)</t>
   </si>
   <si>
+    <t>Ice *)</t>
+  </si>
+  <si>
     <t>Jus Buah *)</t>
+  </si>
+  <si>
+    <t>Fruit Juice *)</t>
   </si>
   <si>
     <t>Minuman Kesegaran</t>
@@ -341,10 +397,19 @@
     <t>Sirop</t>
   </si>
   <si>
+    <t>Syrup</t>
+  </si>
+  <si>
     <t>Teh</t>
   </si>
   <si>
+    <t>Tea</t>
+  </si>
+  <si>
     <t>Teh Siap Saji *)</t>
+  </si>
+  <si>
+    <t>Tea-Ready to Drink *)</t>
   </si>
   <si>
     <t>Gelas</t>
@@ -356,10 +421,16 @@
     <t>Bayam</t>
   </si>
   <si>
+    <t>Spinach</t>
+  </si>
+  <si>
     <t>Sayuran</t>
   </si>
   <si>
     <t>Buncis *)</t>
+  </si>
+  <si>
+    <t>Bean *)</t>
   </si>
   <si>
     <t>Daun Singkong</t>
@@ -371,6 +442,9 @@
     <t>Kacang Panjang *)</t>
   </si>
   <si>
+    <t>Long Bean *)</t>
+  </si>
+  <si>
     <t>Kangkung *)</t>
   </si>
   <si>
@@ -378,6 +452,9 @@
   </si>
   <si>
     <t>Kentang</t>
+  </si>
+  <si>
+    <t>Potato</t>
   </si>
   <si>
     <t>Ketimun *)</t>
@@ -395,10 +472,19 @@
     <t>Labu Siam/Jipang *)</t>
   </si>
   <si>
+    <t>Chayote *)</t>
+  </si>
+  <si>
     <t>Nangka Muda</t>
   </si>
   <si>
+    <t>Young Jackfruit</t>
+  </si>
+  <si>
     <t>Sawi Hijau *)</t>
+  </si>
+  <si>
+    <t>Mustard Greens *)</t>
   </si>
   <si>
     <t>Tauge/Kecambah</t>
@@ -410,13 +496,25 @@
     <t>Terong Panjang</t>
   </si>
   <si>
+    <t>Long Eggplant</t>
+  </si>
+  <si>
     <t>Tomat *)</t>
+  </si>
+  <si>
+    <t>Tomato *)</t>
   </si>
   <si>
     <t>Wortel *)</t>
   </si>
   <si>
+    <t>Carrot *)</t>
+  </si>
+  <si>
     <t>Kacang Hijau</t>
+  </si>
+  <si>
+    <t>Green Bean</t>
   </si>
   <si>
     <t>Kacang Tanah *)</t>
@@ -428,34 +526,64 @@
     <t>Bandeng Segar</t>
   </si>
   <si>
+    <t>Fresh Milkfish</t>
+  </si>
+  <si>
     <t>Seafood</t>
   </si>
   <si>
     <t>Cumi-Cumi Segar</t>
   </si>
   <si>
+    <t>Fresh Squid</t>
+  </si>
+  <si>
     <t>Kakap Merah Segar</t>
+  </si>
+  <si>
+    <t>Fresh Red Snapper</t>
   </si>
   <si>
     <t>Kembung Segar</t>
   </si>
   <si>
+    <t>Fresh Long-Jawed Mackerel</t>
+  </si>
+  <si>
     <t>Lele Segar</t>
+  </si>
+  <si>
+    <t>Fresh Catfish</t>
   </si>
   <si>
     <t>Mas Segar</t>
   </si>
   <si>
+    <t>Fresh Carper</t>
+  </si>
+  <si>
     <t>Mujair Segar</t>
+  </si>
+  <si>
+    <t>Fresh Tilapia</t>
   </si>
   <si>
     <t>Tongkol Segar</t>
   </si>
   <si>
+    <t>Fresh Tuna</t>
+  </si>
+  <si>
     <t>Udang Basah Segar</t>
   </si>
   <si>
+    <t>Fresh Shrimp</t>
+  </si>
+  <si>
     <t>Ikan dalam Kaleng</t>
+  </si>
+  <si>
+    <t>Tin/Canned Fish</t>
   </si>
   <si>
     <t>Margarine *)</t>
@@ -467,10 +595,25 @@
     <t>Susu untuk Balita</t>
   </si>
   <si>
+    <t>Milk for Toddler</t>
+  </si>
+  <si>
     <t>Susu untuk Bayi</t>
   </si>
   <si>
+    <t>Milk for Baby</t>
+  </si>
+  <si>
     <t>Susu Untuk Tulang/Manula</t>
+  </si>
+  <si>
+    <t>Milk for Bone (The Elderly)</t>
+  </si>
+  <si>
+    <t>Susu Cair Kemasan *)</t>
+  </si>
+  <si>
+    <t>Packaged Liquid Milk*)</t>
   </si>
   <si>
     <t>Kemasan</t>
@@ -485,7 +628,13 @@
     <t>Beras</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
     <t>Minyak Goreng</t>
+  </si>
+  <si>
+    <t>Cooking Oil</t>
   </si>
   <si>
     <t>Liter</t>
@@ -493,186 +642,19 @@
   <si>
     <t>Litre</t>
   </si>
-  <si>
-    <t>Chicken*)</t>
-  </si>
-  <si>
-    <t>Chicken Liver (food)</t>
-  </si>
-  <si>
-    <t>Baby Foods</t>
-  </si>
-  <si>
-    <t>Tofu (food)</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t>Papayas</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Watermelons</t>
-  </si>
-  <si>
-    <t>Coconuts</t>
-  </si>
-  <si>
-    <t>Garlics</t>
-  </si>
-  <si>
-    <t>Monosodium Glutamate (MSG)</t>
-  </si>
-  <si>
-    <t>Food Powder</t>
-  </si>
-  <si>
-    <t>Candlenut</t>
-  </si>
-  <si>
-    <t>Gelatin Powder</t>
-  </si>
-  <si>
-    <t>Cakes</t>
-  </si>
-  <si>
-    <t>Snacks)</t>
-  </si>
-  <si>
-    <t>Bakso</t>
-  </si>
-  <si>
-    <t>Nasi Rames</t>
-  </si>
-  <si>
-    <t>Satay (food)</t>
-  </si>
-  <si>
-    <t>Soto (food)</t>
-  </si>
-  <si>
-    <t>Juice *)</t>
-  </si>
-  <si>
-    <t>Ice (Frozen Water)</t>
-  </si>
-  <si>
-    <t>Syrups</t>
-  </si>
-  <si>
-    <t>Tea (Beverage)</t>
-  </si>
-  <si>
-    <t>Tea (Pouch)</t>
-  </si>
-  <si>
-    <t>Spinachs</t>
-  </si>
-  <si>
-    <t>Green Beans</t>
-  </si>
-  <si>
-    <t>Yardlong Beans</t>
-  </si>
-  <si>
-    <t>Potatos</t>
-  </si>
-  <si>
-    <t>Chayotes</t>
-  </si>
-  <si>
-    <t>Jackfruit (Young)</t>
-  </si>
-  <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>Tomatos *)</t>
-  </si>
-  <si>
-    <t>Carrots *)</t>
-  </si>
-  <si>
-    <t>Mung Beans</t>
-  </si>
-  <si>
-    <t>Tilapia</t>
-  </si>
-  <si>
-    <t>Catfishs</t>
-  </si>
-  <si>
-    <t>Mackerels</t>
-  </si>
-  <si>
-    <t>Red Snappers</t>
-  </si>
-  <si>
-    <t>Carps</t>
-  </si>
-  <si>
-    <t>Tunas</t>
-  </si>
-  <si>
-    <t>Shrimps</t>
-  </si>
-  <si>
-    <t>Margarines</t>
-  </si>
-  <si>
-    <t>Milk (For Toddler)</t>
-  </si>
-  <si>
-    <t>Milk (For Baby)</t>
-  </si>
-  <si>
-    <t>Rice (Oryza Sativa)</t>
-  </si>
-  <si>
-    <t>Cooking Oils</t>
-  </si>
-  <si>
-    <t>Black Peppers</t>
-  </si>
-  <si>
-    <t>Milkfish</t>
-  </si>
-  <si>
-    <t>Sea Squid</t>
-  </si>
-  <si>
-    <t>Tin/Canned Fish</t>
-  </si>
-  <si>
-    <t>Condensed Milk</t>
-  </si>
-  <si>
-    <t>Susu Kental Manis</t>
-  </si>
-  <si>
-    <t>Milk (For Older)</t>
-  </si>
-  <si>
-    <t>Mustard Greens</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="mmm\-d"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -698,16 +680,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -715,15 +1034,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -738,17 +1299,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -946,28 +1551,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:DI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
-      <selection activeCell="DH1" sqref="DH1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="12.5703125" style="1"/>
+    <col min="2" max="16384" width="12.6285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="15.75" customHeight="1">
+    <row r="1" spans="1:113">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,57 +1876,57 @@
         <v>44166</v>
       </c>
       <c r="CX1" s="3">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="CY1" s="3">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="CZ1" s="3">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="DA1" s="3">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="DB1" s="3">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="DC1" s="3">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="DD1" s="3">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="DE1" s="3">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="DF1" s="3">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="DG1" s="3">
-        <v>44470</v>
+        <v>44105</v>
       </c>
       <c r="DH1" s="3">
-        <v>44501</v>
+        <v>44136</v>
       </c>
       <c r="DI1" s="3">
-        <v>44531</v>
+        <v>44166</v>
       </c>
     </row>
-    <row r="2" spans="1:113" ht="15.75" customHeight="1">
+    <row r="2" spans="1:113">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5">
         <v>52611</v>
@@ -1649,21 +2253,21 @@
         <v>62812</v>
       </c>
     </row>
-    <row r="3" spans="1:113" ht="15.75" customHeight="1">
+    <row r="3" spans="1:113">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="5">
         <v>24654</v>
@@ -1990,21 +2594,21 @@
         <v>38644</v>
       </c>
     </row>
-    <row r="4" spans="1:113" ht="15.75" customHeight="1">
+    <row r="4" spans="1:113">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5">
         <v>18609</v>
@@ -2331,21 +2935,21 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="5" spans="1:113" ht="15.75" customHeight="1">
+    <row r="5" spans="1:113">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
         <v>6047</v>
@@ -2672,21 +3276,21 @@
         <v>9372</v>
       </c>
     </row>
-    <row r="6" spans="1:113" ht="15.75" customHeight="1">
+    <row r="6" spans="1:113">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5">
         <v>13698</v>
@@ -3013,21 +3617,21 @@
         <v>17543</v>
       </c>
     </row>
-    <row r="7" spans="1:113" ht="15.75" customHeight="1">
+    <row r="7" spans="1:113">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>5391</v>
@@ -3354,21 +3958,21 @@
         <v>8504</v>
       </c>
     </row>
-    <row r="8" spans="1:113" ht="15.75" customHeight="1">
+    <row r="8" spans="1:113">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5">
         <v>4244</v>
@@ -3695,21 +4299,21 @@
         <v>7524</v>
       </c>
     </row>
-    <row r="9" spans="1:113" ht="15.75" customHeight="1">
+    <row r="9" spans="1:113">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5">
         <v>22477</v>
@@ -4036,21 +4640,21 @@
         <v>28302</v>
       </c>
     </row>
-    <row r="10" spans="1:113" ht="15.75" customHeight="1">
+    <row r="10" spans="1:113">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5">
         <v>3454</v>
@@ -4377,21 +4981,21 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="11" spans="1:113" ht="15.75" customHeight="1">
+    <row r="11" spans="1:113">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
         <v>4155</v>
@@ -4718,21 +5322,21 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="12" spans="1:113" ht="15.75" customHeight="1">
+    <row r="12" spans="1:113">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F12" s="5">
         <v>16169</v>
@@ -5059,21 +5663,21 @@
         <v>18882</v>
       </c>
     </row>
-    <row r="13" spans="1:113" ht="15.75" customHeight="1">
+    <row r="13" spans="1:113">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>19225</v>
@@ -5400,21 +6004,21 @@
         <v>22621</v>
       </c>
     </row>
-    <row r="14" spans="1:113" ht="15.75" customHeight="1">
+    <row r="14" spans="1:113">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5">
         <v>4064</v>
@@ -5741,21 +6345,21 @@
         <v>8593</v>
       </c>
     </row>
-    <row r="15" spans="1:113" ht="15.75" customHeight="1">
+    <row r="15" spans="1:113">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5">
         <v>9689</v>
@@ -6082,21 +6686,21 @@
         <v>17719</v>
       </c>
     </row>
-    <row r="16" spans="1:113" ht="15.75" customHeight="1">
+    <row r="16" spans="1:113">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
         <v>4460</v>
@@ -6423,21 +7027,21 @@
         <v>5697</v>
       </c>
     </row>
-    <row r="17" spans="1:113" ht="15.75" customHeight="1">
+    <row r="17" spans="1:113">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5">
         <v>67856</v>
@@ -6764,21 +7368,21 @@
         <v>75590</v>
       </c>
     </row>
-    <row r="18" spans="1:113" ht="15.75" customHeight="1">
+    <row r="18" spans="1:113">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5">
         <v>1962</v>
@@ -7105,21 +7709,21 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="19" spans="1:113" ht="15.75" customHeight="1">
+    <row r="19" spans="1:113">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5">
         <v>3065</v>
@@ -7446,21 +8050,21 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="20" spans="1:113" ht="15.75" customHeight="1">
+    <row r="20" spans="1:113">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F20" s="5">
         <v>1487</v>
@@ -7787,21 +8391,21 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="21" spans="1:113" ht="15.75" customHeight="1">
+    <row r="21" spans="1:113">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F21" s="5">
         <v>7786</v>
@@ -8128,21 +8732,21 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="22" spans="1:113" ht="15.75" customHeight="1">
+    <row r="22" spans="1:113">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5">
         <v>9579</v>
@@ -8469,21 +9073,21 @@
         <v>14156</v>
       </c>
     </row>
-    <row r="23" spans="1:113" ht="15.75" customHeight="1">
+    <row r="23" spans="1:113">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F23" s="5">
         <v>9194</v>
@@ -8810,21 +9414,21 @@
         <v>7849</v>
       </c>
     </row>
-    <row r="24" spans="1:113" ht="15.75" customHeight="1">
+    <row r="24" spans="1:113">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5">
         <v>10036</v>
@@ -9151,21 +9755,21 @@
         <v>11987</v>
       </c>
     </row>
-    <row r="25" spans="1:113" ht="15.75" customHeight="1">
+    <row r="25" spans="1:113">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5">
         <v>2272</v>
@@ -9492,21 +10096,21 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="26" spans="1:113" ht="15.75" customHeight="1">
+    <row r="26" spans="1:113">
       <c r="A26" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5">
         <v>33489</v>
@@ -9833,21 +10437,21 @@
         <v>56663</v>
       </c>
     </row>
-    <row r="27" spans="1:113" ht="15.75" customHeight="1">
+    <row r="27" spans="1:113">
       <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="F27" s="5">
         <v>24641</v>
@@ -10174,21 +10778,21 @@
         <v>27895</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="15.75" customHeight="1">
+    <row r="28" spans="1:113">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F28" s="5">
         <v>27377</v>
@@ -10515,21 +11119,21 @@
         <v>41459</v>
       </c>
     </row>
-    <row r="29" spans="1:113" ht="15.75" customHeight="1">
+    <row r="29" spans="1:113">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F29" s="5">
         <v>10072</v>
@@ -10856,21 +11460,21 @@
         <v>15629</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="15.75" customHeight="1">
+    <row r="30" spans="1:113">
       <c r="A30" s="4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F30" s="5">
         <v>60030</v>
@@ -11197,21 +11801,21 @@
         <v>81383</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="15.75" customHeight="1">
+    <row r="31" spans="1:113">
       <c r="A31" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F31" s="5">
         <v>3910</v>
@@ -11538,21 +12142,21 @@
         <v>7321</v>
       </c>
     </row>
-    <row r="32" spans="1:113" ht="15.75" customHeight="1">
+    <row r="32" spans="1:113">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F32" s="5">
         <v>7424</v>
@@ -11879,21 +12483,21 @@
         <v>13032</v>
       </c>
     </row>
-    <row r="33" spans="1:113" ht="15.75" customHeight="1">
+    <row r="33" spans="1:113">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F33" s="5">
         <v>16331</v>
@@ -12220,21 +12824,21 @@
         <v>26597</v>
       </c>
     </row>
-    <row r="34" spans="1:113" ht="15.75" customHeight="1">
+    <row r="34" spans="1:113">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F34" s="5">
         <v>4899</v>
@@ -12561,21 +13165,21 @@
         <v>6996</v>
       </c>
     </row>
-    <row r="35" spans="1:113" ht="15.75" customHeight="1">
+    <row r="35" spans="1:113">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F35" s="5">
         <v>1428</v>
@@ -12902,21 +13506,21 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="36" spans="1:113" ht="15.75" customHeight="1">
+    <row r="36" spans="1:113">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F36" s="5">
         <v>766</v>
@@ -13243,21 +13847,21 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="37" spans="1:113" ht="15.75" customHeight="1">
+    <row r="37" spans="1:113">
       <c r="A37" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F37" s="5">
         <v>1931</v>
@@ -13584,21 +14188,21 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="38" spans="1:113" ht="15.75" customHeight="1">
+    <row r="38" spans="1:113">
       <c r="A38" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F38" s="5">
         <v>15883</v>
@@ -13925,21 +14529,21 @@
         <v>26228</v>
       </c>
     </row>
-    <row r="39" spans="1:113" ht="15.75" customHeight="1">
+    <row r="39" spans="1:113">
       <c r="A39" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F39" s="5">
         <v>7946</v>
@@ -14266,21 +14870,21 @@
         <v>14732</v>
       </c>
     </row>
-    <row r="40" spans="1:113" ht="15.75" customHeight="1">
+    <row r="40" spans="1:113">
       <c r="A40" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F40" s="5">
         <v>9531</v>
@@ -14607,21 +15211,21 @@
         <v>17175</v>
       </c>
     </row>
-    <row r="41" spans="1:113" ht="15.75" customHeight="1">
+    <row r="41" spans="1:113">
       <c r="A41" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F41" s="5">
         <v>3861</v>
@@ -14948,21 +15552,21 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="42" spans="1:113" ht="15.75" customHeight="1">
+    <row r="42" spans="1:113">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F42" s="5">
         <v>8338</v>
@@ -15289,21 +15893,21 @@
         <v>12281</v>
       </c>
     </row>
-    <row r="43" spans="1:113" ht="15.75" customHeight="1">
+    <row r="43" spans="1:113">
       <c r="A43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F43" s="5">
         <v>15266</v>
@@ -15630,21 +16234,21 @@
         <v>24355</v>
       </c>
     </row>
-    <row r="44" spans="1:113" ht="15.75" customHeight="1">
+    <row r="44" spans="1:113">
       <c r="A44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F44" s="5">
         <v>9155</v>
@@ -15971,21 +16575,21 @@
         <v>18145</v>
       </c>
     </row>
-    <row r="45" spans="1:113" ht="15.75" customHeight="1">
+    <row r="45" spans="1:113">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F45" s="5">
         <v>7172</v>
@@ -16312,21 +16916,21 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="46" spans="1:113" ht="15.75" customHeight="1">
+    <row r="46" spans="1:113">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F46" s="5">
         <v>2870</v>
@@ -16653,21 +17257,21 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="47" spans="1:113" ht="15.75" customHeight="1">
+    <row r="47" spans="1:113">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F47" s="5">
         <v>4816</v>
@@ -16994,21 +17598,21 @@
         <v>10507</v>
       </c>
     </row>
-    <row r="48" spans="1:113" ht="15.75" customHeight="1">
+    <row r="48" spans="1:113">
       <c r="A48" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F48" s="5">
         <v>7725</v>
@@ -17335,21 +17939,21 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="49" spans="1:113" ht="15.75" customHeight="1">
+    <row r="49" spans="1:113">
       <c r="A49" s="4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F49" s="5">
         <v>3517</v>
@@ -17676,21 +18280,21 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="50" spans="1:113" ht="15.75" customHeight="1">
+    <row r="50" spans="1:113">
       <c r="A50" s="4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F50" s="5">
         <v>3781</v>
@@ -18017,21 +18621,21 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="51" spans="1:113" ht="15.75" customHeight="1">
+    <row r="51" spans="1:113">
       <c r="A51" s="4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F51" s="5">
         <v>12414</v>
@@ -18358,21 +18962,21 @@
         <v>13145</v>
       </c>
     </row>
-    <row r="52" spans="1:113" ht="15">
+    <row r="52" spans="1:113">
       <c r="A52" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F52" s="5">
         <v>4151</v>
@@ -18699,21 +19303,21 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="53" spans="1:113" ht="15">
+    <row r="53" spans="1:113">
       <c r="A53" s="4" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F53" s="5">
         <v>2098</v>
@@ -19040,21 +19644,21 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="54" spans="1:113" ht="15">
+    <row r="54" spans="1:113">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F54" s="5">
         <v>6765</v>
@@ -19381,21 +19985,21 @@
         <v>9868</v>
       </c>
     </row>
-    <row r="55" spans="1:113" ht="15">
+    <row r="55" spans="1:113">
       <c r="A55" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F55" s="5">
         <v>9732</v>
@@ -19722,21 +20326,21 @@
         <v>14638</v>
       </c>
     </row>
-    <row r="56" spans="1:113" ht="15">
+    <row r="56" spans="1:113">
       <c r="A56" s="4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F56" s="5">
         <v>5062</v>
@@ -20063,21 +20667,21 @@
         <v>7345</v>
       </c>
     </row>
-    <row r="57" spans="1:113" ht="15">
+    <row r="57" spans="1:113">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F57" s="5">
         <v>9635</v>
@@ -20404,21 +21008,21 @@
         <v>12809</v>
       </c>
     </row>
-    <row r="58" spans="1:113" ht="15">
+    <row r="58" spans="1:113">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F58" s="5">
         <v>6076</v>
@@ -20745,21 +21349,21 @@
         <v>9058</v>
       </c>
     </row>
-    <row r="59" spans="1:113" ht="15">
+    <row r="59" spans="1:113">
       <c r="A59" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F59" s="5">
         <v>8565</v>
@@ -21086,21 +21690,21 @@
         <v>13447</v>
       </c>
     </row>
-    <row r="60" spans="1:113" ht="15">
+    <row r="60" spans="1:113">
       <c r="A60" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F60" s="5">
         <v>5447</v>
@@ -21427,21 +22031,21 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="61" spans="1:113" ht="15">
+    <row r="61" spans="1:113">
       <c r="A61" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F61" s="5">
         <v>6056</v>
@@ -21768,21 +22372,21 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="62" spans="1:113" ht="15">
+    <row r="62" spans="1:113">
       <c r="A62" s="4" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F62" s="5">
         <v>4646</v>
@@ -22109,21 +22713,21 @@
         <v>7688</v>
       </c>
     </row>
-    <row r="63" spans="1:113" ht="15">
+    <row r="63" spans="1:113">
       <c r="A63" s="4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F63" s="5">
         <v>7805</v>
@@ -22450,21 +23054,21 @@
         <v>11617</v>
       </c>
     </row>
-    <row r="64" spans="1:113" ht="15">
+    <row r="64" spans="1:113">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F64" s="5">
         <v>7263</v>
@@ -22791,21 +23395,21 @@
         <v>10955</v>
       </c>
     </row>
-    <row r="65" spans="1:113" ht="15">
+    <row r="65" spans="1:113">
       <c r="A65" s="4" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F65" s="5">
         <v>7680</v>
@@ -23132,21 +23736,21 @@
         <v>10903</v>
       </c>
     </row>
-    <row r="66" spans="1:113" ht="15">
+    <row r="66" spans="1:113">
       <c r="A66" s="4" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F66" s="5">
         <v>5601</v>
@@ -23473,21 +24077,21 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="67" spans="1:113" ht="15">
+    <row r="67" spans="1:113">
       <c r="A67" s="4" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F67" s="5">
         <v>8054</v>
@@ -23814,21 +24418,21 @@
         <v>9937</v>
       </c>
     </row>
-    <row r="68" spans="1:113" ht="15">
+    <row r="68" spans="1:113">
       <c r="A68" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F68" s="5">
         <v>11275</v>
@@ -24155,21 +24759,21 @@
         <v>13045</v>
       </c>
     </row>
-    <row r="69" spans="1:113" ht="15">
+    <row r="69" spans="1:113">
       <c r="A69" s="4" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F69" s="5">
         <v>16319</v>
@@ -24496,21 +25100,21 @@
         <v>23636</v>
       </c>
     </row>
-    <row r="70" spans="1:113" ht="15">
+    <row r="70" spans="1:113">
       <c r="A70" s="4" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F70" s="5">
         <v>19801</v>
@@ -24837,21 +25441,21 @@
         <v>26993</v>
       </c>
     </row>
-    <row r="71" spans="1:113" ht="15">
+    <row r="71" spans="1:113">
       <c r="A71" s="4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F71" s="5">
         <v>25788</v>
@@ -25178,21 +25782,21 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="72" spans="1:113" ht="15">
+    <row r="72" spans="1:113">
       <c r="A72" s="4" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F72" s="5">
         <v>36305</v>
@@ -25519,21 +26123,21 @@
         <v>71150</v>
       </c>
     </row>
-    <row r="73" spans="1:113" ht="15">
+    <row r="73" spans="1:113">
       <c r="A73" s="4" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F73" s="5">
         <v>41488</v>
@@ -25860,21 +26464,21 @@
         <v>54850</v>
       </c>
     </row>
-    <row r="74" spans="1:113" ht="15">
+    <row r="74" spans="1:113">
       <c r="A74" s="4" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F74" s="5">
         <v>26644</v>
@@ -26201,21 +26805,21 @@
         <v>39409</v>
       </c>
     </row>
-    <row r="75" spans="1:113" ht="15">
+    <row r="75" spans="1:113">
       <c r="A75" s="4" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F75" s="5">
         <v>16993</v>
@@ -26542,21 +27146,21 @@
         <v>25535</v>
       </c>
     </row>
-    <row r="76" spans="1:113" ht="15">
+    <row r="76" spans="1:113">
       <c r="A76" s="4" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F76" s="5">
         <v>25081</v>
@@ -26883,21 +27487,21 @@
         <v>32833</v>
       </c>
     </row>
-    <row r="77" spans="1:113" ht="15">
+    <row r="77" spans="1:113">
       <c r="A77" s="4" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F77" s="5">
         <v>19401</v>
@@ -27224,21 +27828,21 @@
         <v>31345</v>
       </c>
     </row>
-    <row r="78" spans="1:113" ht="15">
+    <row r="78" spans="1:113">
       <c r="A78" s="4" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F78" s="5">
         <v>23908</v>
@@ -27565,21 +28169,21 @@
         <v>32196</v>
       </c>
     </row>
-    <row r="79" spans="1:113" ht="15">
+    <row r="79" spans="1:113">
       <c r="A79" s="4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F79" s="5">
         <v>54775</v>
@@ -27906,21 +28510,21 @@
         <v>87285</v>
       </c>
     </row>
-    <row r="80" spans="1:113" ht="15">
+    <row r="80" spans="1:113">
       <c r="A80" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F80" s="5">
         <v>11835</v>
@@ -28247,21 +28851,21 @@
         <v>19104</v>
       </c>
     </row>
-    <row r="81" spans="1:113" ht="15">
+    <row r="81" spans="1:113">
       <c r="A81" s="4" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F81" s="5">
         <v>35667</v>
@@ -28588,21 +29192,21 @@
         <v>49304</v>
       </c>
     </row>
-    <row r="82" spans="1:113" ht="15">
+    <row r="82" spans="1:113">
       <c r="A82" s="4" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F82" s="5">
         <v>31307</v>
@@ -28929,21 +29533,21 @@
         <v>47141</v>
       </c>
     </row>
-    <row r="83" spans="1:113" ht="15">
+    <row r="83" spans="1:113">
       <c r="A83" s="4" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F83" s="5">
         <v>32144</v>
@@ -29270,21 +29874,21 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="84" spans="1:113" ht="15">
+    <row r="84" spans="1:113">
       <c r="A84" s="4" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F84" s="5">
         <v>32922</v>
@@ -29611,21 +30215,21 @@
         <v>51038</v>
       </c>
     </row>
-    <row r="85" spans="1:113" ht="15">
+    <row r="85" spans="1:113">
       <c r="A85" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F85" s="5">
         <v>3232</v>
@@ -29952,1357 +30556,1358 @@
         <v>6428</v>
       </c>
     </row>
-    <row r="86" spans="1:113" ht="15">
+    <row r="86" spans="1:113">
       <c r="A86" s="1" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(12000,13000)</f>
-        <v>12216</v>
+        <v>12354</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" ref="G86:P86" ca="1" si="0">RANDBETWEEN(12000,13000)</f>
-        <v>12300</v>
+        <f ca="1" t="shared" ref="G86:P86" si="0">RANDBETWEEN(12000,13000)</f>
+        <v>12388</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12285</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12501</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12936</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12581</v>
       </c>
       <c r="J86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12277</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12662</v>
       </c>
       <c r="K86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12529</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12332</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12478</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12747</v>
       </c>
       <c r="M86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12768</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12173</v>
       </c>
       <c r="N86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12169</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12922</v>
       </c>
       <c r="O86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12289</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12250</v>
       </c>
       <c r="P86" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12527</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>12503</v>
       </c>
       <c r="Q86" s="7">
         <f ca="1">RANDBETWEEN(12000,13000)</f>
-        <v>12569</v>
+        <v>12451</v>
       </c>
       <c r="R86" s="7">
         <f ca="1">RANDBETWEEN(13100,13300)</f>
-        <v>13243</v>
+        <v>13101</v>
       </c>
       <c r="S86" s="7">
-        <f t="shared" ref="S86:AC86" ca="1" si="1">RANDBETWEEN(13100,13300)</f>
-        <v>13237</v>
+        <f ca="1" t="shared" ref="S86:AC86" si="1">RANDBETWEEN(13100,13300)</f>
+        <v>13214</v>
       </c>
       <c r="T86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13256</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13197</v>
       </c>
       <c r="U86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13207</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13295</v>
       </c>
       <c r="V86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13137</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13149</v>
       </c>
       <c r="W86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13261</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13123</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13186</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13160</v>
       </c>
       <c r="Y86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13207</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13132</v>
       </c>
       <c r="Z86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13220</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13160</v>
       </c>
       <c r="AA86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13119</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13238</v>
       </c>
       <c r="AB86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13264</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13225</v>
       </c>
       <c r="AC86" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13164</v>
+        <f ca="1" t="shared" si="1"/>
+        <v>13190</v>
       </c>
       <c r="AD86" s="7">
         <f ca="1">RANDBETWEEN(12100,12200)</f>
-        <v>12131</v>
+        <v>12116</v>
       </c>
       <c r="AE86" s="7">
-        <f t="shared" ref="AE86:AO86" ca="1" si="2">RANDBETWEEN(12100,12200)</f>
-        <v>12123</v>
+        <f ca="1" t="shared" ref="AE86:AO86" si="2">RANDBETWEEN(12100,12200)</f>
+        <v>12159</v>
       </c>
       <c r="AF86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12116</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12160</v>
       </c>
       <c r="AG86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12196</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12184</v>
       </c>
       <c r="AH86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12198</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12164</v>
       </c>
       <c r="AI86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12162</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12176</v>
       </c>
       <c r="AJ86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12109</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12158</v>
       </c>
       <c r="AK86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12134</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12169</v>
       </c>
       <c r="AL86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12145</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12130</v>
       </c>
       <c r="AM86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12106</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12186</v>
       </c>
       <c r="AN86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12142</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12125</v>
       </c>
       <c r="AO86" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12110</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>12148</v>
       </c>
       <c r="AP86" s="8">
         <f ca="1">RANDBETWEEN(13000,13500)</f>
-        <v>13320</v>
+        <v>13031</v>
       </c>
       <c r="AQ86" s="8">
-        <f t="shared" ref="AQ86:BA86" ca="1" si="3">RANDBETWEEN(13000,13500)</f>
-        <v>13447</v>
+        <f ca="1" t="shared" ref="AQ86:BA86" si="3">RANDBETWEEN(13000,13500)</f>
+        <v>13240</v>
       </c>
       <c r="AR86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13215</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13165</v>
       </c>
       <c r="AS86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13357</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13257</v>
       </c>
       <c r="AT86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13296</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13222</v>
       </c>
       <c r="AU86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13194</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13318</v>
       </c>
       <c r="AV86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13306</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13033</v>
       </c>
       <c r="AW86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13463</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13191</v>
       </c>
       <c r="AX86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13170</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13074</v>
       </c>
       <c r="AY86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13364</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13119</v>
       </c>
       <c r="AZ86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13340</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13408</v>
       </c>
       <c r="BA86" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>13197</v>
+        <f ca="1" t="shared" si="3"/>
+        <v>13108</v>
       </c>
       <c r="BB86" s="8">
-        <f t="shared" ref="BB86:BK86" ca="1" si="4">RANDBETWEEN(13000,13500)</f>
-        <v>13094</v>
+        <f ca="1" t="shared" ref="BB86:BK86" si="4">RANDBETWEEN(13000,13500)</f>
+        <v>13059</v>
       </c>
       <c r="BC86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13280</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13167</v>
       </c>
       <c r="BD86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13376</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13358</v>
       </c>
       <c r="BE86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13355</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13443</v>
       </c>
       <c r="BF86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13227</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13489</v>
       </c>
       <c r="BG86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13022</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13469</v>
       </c>
       <c r="BH86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13469</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13142</v>
       </c>
       <c r="BI86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13315</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13288</v>
       </c>
       <c r="BJ86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13351</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13493</v>
       </c>
       <c r="BK86" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>13469</v>
+        <f ca="1" t="shared" si="4"/>
+        <v>13051</v>
       </c>
       <c r="BL86" s="8">
-        <f t="shared" ref="BL86:BY86" ca="1" si="5">RANDBETWEEN(13000,13500)</f>
-        <v>13352</v>
+        <f ca="1" t="shared" ref="BL86:BY86" si="5">RANDBETWEEN(13000,13500)</f>
+        <v>13240</v>
       </c>
       <c r="BM86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13475</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13184</v>
       </c>
       <c r="BN86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13240</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13006</v>
       </c>
       <c r="BO86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13349</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13347</v>
       </c>
       <c r="BP86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13356</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13109</v>
       </c>
       <c r="BQ86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13435</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13122</v>
       </c>
       <c r="BR86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13365</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13301</v>
       </c>
       <c r="BS86" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
+        <v>13195</v>
+      </c>
+      <c r="BT86" s="8">
+        <f ca="1" t="shared" si="5"/>
         <v>13119</v>
       </c>
-      <c r="BT86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13155</v>
-      </c>
       <c r="BU86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13300</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13096</v>
       </c>
       <c r="BV86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13195</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13112</v>
       </c>
       <c r="BW86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13126</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13287</v>
       </c>
       <c r="BX86" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>13169</v>
+        <f ca="1" t="shared" si="5"/>
+        <v>13494</v>
       </c>
       <c r="BY86" s="8">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1" t="shared" si="5"/>
         <v>13130</v>
       </c>
       <c r="BZ86" s="8">
         <f ca="1">RANDBETWEEN(13500,13800)</f>
-        <v>13736</v>
+        <v>13551</v>
       </c>
       <c r="CA86" s="8">
-        <f t="shared" ref="CA86:CK86" ca="1" si="6">RANDBETWEEN(13500,13800)</f>
-        <v>13538</v>
+        <f ca="1" t="shared" ref="CA86:CK86" si="6">RANDBETWEEN(13500,13800)</f>
+        <v>13613</v>
       </c>
       <c r="CB86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13650</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13678</v>
       </c>
       <c r="CC86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13702</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13740</v>
       </c>
       <c r="CD86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13684</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13667</v>
       </c>
       <c r="CE86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13779</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13753</v>
       </c>
       <c r="CF86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13678</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13709</v>
       </c>
       <c r="CG86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13564</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13698</v>
       </c>
       <c r="CH86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13561</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13654</v>
       </c>
       <c r="CI86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13628</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13685</v>
       </c>
       <c r="CJ86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13518</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13735</v>
       </c>
       <c r="CK86" s="8">
-        <f t="shared" ca="1" si="6"/>
-        <v>13555</v>
+        <f ca="1" t="shared" si="6"/>
+        <v>13526</v>
       </c>
       <c r="CL86" s="8">
         <f ca="1">RANDBETWEEN(14000,15000)</f>
-        <v>14386</v>
+        <v>14102</v>
       </c>
       <c r="CM86" s="8">
-        <f t="shared" ref="CM86:CV86" ca="1" si="7">RANDBETWEEN(14000,15000)</f>
+        <f ca="1" t="shared" ref="CM86:CV86" si="7">RANDBETWEEN(14000,15000)</f>
+        <v>14774</v>
+      </c>
+      <c r="CN86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14189</v>
+      </c>
+      <c r="CO86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14726</v>
+      </c>
+      <c r="CP86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14440</v>
+      </c>
+      <c r="CQ86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14598</v>
+      </c>
+      <c r="CR86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14222</v>
+      </c>
+      <c r="CS86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14519</v>
+      </c>
+      <c r="CT86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14113</v>
+      </c>
+      <c r="CU86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14581</v>
+      </c>
+      <c r="CV86" s="8">
+        <f ca="1" t="shared" si="7"/>
+        <v>14326</v>
+      </c>
+      <c r="CW86" s="8">
+        <f ca="1" t="shared" ref="CW86:DI86" si="8">RANDBETWEEN(14000,15000)</f>
+        <v>14069</v>
+      </c>
+      <c r="CX86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14753</v>
+      </c>
+      <c r="CY86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14926</v>
+      </c>
+      <c r="CZ86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14326</v>
+      </c>
+      <c r="DA86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14649</v>
+      </c>
+      <c r="DB86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14040</v>
+      </c>
+      <c r="DC86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14843</v>
+      </c>
+      <c r="DD86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14291</v>
+      </c>
+      <c r="DE86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14041</v>
+      </c>
+      <c r="DF86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14353</v>
+      </c>
+      <c r="DG86" s="8">
+        <f ca="1" t="shared" si="8"/>
+        <v>14512</v>
+      </c>
+      <c r="DH86" s="8">
+        <f ca="1" t="shared" si="8"/>
         <v>14550</v>
       </c>
-      <c r="CN86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14198</v>
-      </c>
-      <c r="CO86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14418</v>
-      </c>
-      <c r="CP86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14044</v>
-      </c>
-      <c r="CQ86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14075</v>
-      </c>
-      <c r="CR86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14287</v>
-      </c>
-      <c r="CS86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14836</v>
-      </c>
-      <c r="CT86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14586</v>
-      </c>
-      <c r="CU86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14168</v>
-      </c>
-      <c r="CV86" s="8">
-        <f t="shared" ca="1" si="7"/>
-        <v>14547</v>
-      </c>
-      <c r="CW86" s="8">
-        <f t="shared" ref="CW86:DI86" ca="1" si="8">RANDBETWEEN(14000,15000)</f>
-        <v>14118</v>
-      </c>
-      <c r="CX86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14698</v>
-      </c>
-      <c r="CY86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14464</v>
-      </c>
-      <c r="CZ86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14209</v>
-      </c>
-      <c r="DA86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14922</v>
-      </c>
-      <c r="DB86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14677</v>
-      </c>
-      <c r="DC86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14276</v>
-      </c>
-      <c r="DD86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14527</v>
-      </c>
-      <c r="DE86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14578</v>
-      </c>
-      <c r="DF86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14566</v>
-      </c>
-      <c r="DG86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14995</v>
-      </c>
-      <c r="DH86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14140</v>
-      </c>
       <c r="DI86" s="8">
-        <f t="shared" ca="1" si="8"/>
-        <v>14728</v>
+        <f ca="1" t="shared" si="8"/>
+        <v>14045</v>
       </c>
     </row>
-    <row r="87" spans="1:113" ht="15">
+    <row r="87" spans="1:113">
       <c r="A87" s="1" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F87" s="7">
         <f ca="1">RANDBETWEEN(9000,9500)</f>
-        <v>9290</v>
+        <v>9051</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" ref="G87:P87" ca="1" si="9">RANDBETWEEN(9000,9500)</f>
+        <f ca="1" t="shared" ref="G87:P87" si="9">RANDBETWEEN(9000,9500)</f>
+        <v>9222</v>
+      </c>
+      <c r="H87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9448</v>
+      </c>
+      <c r="I87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9339</v>
+      </c>
+      <c r="J87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9015</v>
+      </c>
+      <c r="K87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9085</v>
+      </c>
+      <c r="L87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9243</v>
+      </c>
+      <c r="M87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9437</v>
+      </c>
+      <c r="N87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9060</v>
+      </c>
+      <c r="O87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9167</v>
+      </c>
+      <c r="P87" s="7">
+        <f ca="1" t="shared" si="9"/>
+        <v>9175</v>
+      </c>
+      <c r="Q87" s="7">
+        <f ca="1" t="shared" ref="Q87:Z87" si="10">RANDBETWEEN(9000,9500)</f>
+        <v>9377</v>
+      </c>
+      <c r="R87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9256</v>
+      </c>
+      <c r="S87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9128</v>
+      </c>
+      <c r="T87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9437</v>
+      </c>
+      <c r="U87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9450</v>
+      </c>
+      <c r="V87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9147</v>
+      </c>
+      <c r="W87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9199</v>
+      </c>
+      <c r="X87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9303</v>
+      </c>
+      <c r="Y87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9130</v>
+      </c>
+      <c r="Z87" s="7">
+        <f ca="1" t="shared" si="10"/>
+        <v>9324</v>
+      </c>
+      <c r="AA87" s="7">
+        <f ca="1" t="shared" ref="AA87:AO87" si="11">RANDBETWEEN(9000,9500)</f>
+        <v>9498</v>
+      </c>
+      <c r="AB87" s="7">
+        <f ca="1" t="shared" si="11"/>
+        <v>9000</v>
+      </c>
+      <c r="AC87" s="7">
+        <f ca="1" t="shared" si="11"/>
+        <v>9181</v>
+      </c>
+      <c r="AD87" s="7">
+        <f ca="1" t="shared" si="11"/>
+        <v>9492</v>
+      </c>
+      <c r="AE87" s="7">
+        <f ca="1" t="shared" si="11"/>
         <v>9048</v>
       </c>
-      <c r="H87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9149</v>
-      </c>
-      <c r="I87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9221</v>
-      </c>
-      <c r="J87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9031</v>
-      </c>
-      <c r="K87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9296</v>
-      </c>
-      <c r="L87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9451</v>
-      </c>
-      <c r="M87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9343</v>
-      </c>
-      <c r="N87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9476</v>
-      </c>
-      <c r="O87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9148</v>
-      </c>
-      <c r="P87" s="7">
-        <f t="shared" ca="1" si="9"/>
-        <v>9158</v>
-      </c>
-      <c r="Q87" s="7">
-        <f t="shared" ref="Q87:Z87" ca="1" si="10">RANDBETWEEN(9000,9500)</f>
-        <v>9109</v>
-      </c>
-      <c r="R87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9176</v>
-      </c>
-      <c r="S87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9176</v>
-      </c>
-      <c r="T87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9272</v>
-      </c>
-      <c r="U87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9033</v>
-      </c>
-      <c r="V87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9350</v>
-      </c>
-      <c r="W87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9245</v>
-      </c>
-      <c r="X87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9353</v>
-      </c>
-      <c r="Y87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9213</v>
-      </c>
-      <c r="Z87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>9226</v>
-      </c>
-      <c r="AA87" s="7">
-        <f t="shared" ref="AA87:AO87" ca="1" si="11">RANDBETWEEN(9000,9500)</f>
-        <v>9131</v>
-      </c>
-      <c r="AB87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9464</v>
-      </c>
-      <c r="AC87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9064</v>
-      </c>
-      <c r="AD87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9248</v>
-      </c>
-      <c r="AE87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9265</v>
-      </c>
       <c r="AF87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9390</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9240</v>
       </c>
       <c r="AG87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9433</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9243</v>
       </c>
       <c r="AH87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9120</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9484</v>
       </c>
       <c r="AI87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9077</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9140</v>
       </c>
       <c r="AJ87" s="7">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1" t="shared" si="11"/>
         <v>9000</v>
       </c>
       <c r="AK87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9434</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9130</v>
       </c>
       <c r="AL87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9401</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9275</v>
       </c>
       <c r="AM87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9141</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9412</v>
       </c>
       <c r="AN87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9403</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9273</v>
       </c>
       <c r="AO87" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>9306</v>
+        <f ca="1" t="shared" si="11"/>
+        <v>9123</v>
       </c>
       <c r="AP87" s="7">
         <f ca="1">RANDBETWEEN(10000,12000)</f>
-        <v>10555</v>
+        <v>11056</v>
       </c>
       <c r="AQ87" s="7">
-        <f t="shared" ref="AQ87:AZ87" ca="1" si="12">RANDBETWEEN(10000,12000)</f>
-        <v>10445</v>
+        <f ca="1" t="shared" ref="AQ87:AZ87" si="12">RANDBETWEEN(10000,12000)</f>
+        <v>10596</v>
       </c>
       <c r="AR87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10083</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>10595</v>
       </c>
       <c r="AS87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10506</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11949</v>
       </c>
       <c r="AT87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>11620</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11076</v>
       </c>
       <c r="AU87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10341</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11321</v>
       </c>
       <c r="AV87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10759</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11137</v>
       </c>
       <c r="AW87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10531</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11743</v>
       </c>
       <c r="AX87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>11112</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>10388</v>
       </c>
       <c r="AY87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10761</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>11128</v>
       </c>
       <c r="AZ87" s="7">
-        <f t="shared" ca="1" si="12"/>
-        <v>10153</v>
+        <f ca="1" t="shared" si="12"/>
+        <v>10156</v>
       </c>
       <c r="BA87" s="7">
-        <f t="shared" ref="BA87:BJ87" ca="1" si="13">RANDBETWEEN(10000,12000)</f>
-        <v>10094</v>
+        <f ca="1" t="shared" ref="BA87:BJ87" si="13">RANDBETWEEN(10000,12000)</f>
+        <v>11244</v>
       </c>
       <c r="BB87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>10388</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>10283</v>
       </c>
       <c r="BC87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11530</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>11688</v>
       </c>
       <c r="BD87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11112</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>11476</v>
       </c>
       <c r="BE87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11412</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>10699</v>
       </c>
       <c r="BF87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11428</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>11254</v>
       </c>
       <c r="BG87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11076</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>11406</v>
       </c>
       <c r="BH87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>10992</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>11977</v>
       </c>
       <c r="BI87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>11089</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>10168</v>
       </c>
       <c r="BJ87" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>10809</v>
+        <f ca="1" t="shared" si="13"/>
+        <v>10131</v>
       </c>
       <c r="BK87" s="7">
-        <f t="shared" ref="BK87:BY87" ca="1" si="14">RANDBETWEEN(10000,12000)</f>
-        <v>11049</v>
+        <f ca="1" t="shared" ref="BK87:BY87" si="14">RANDBETWEEN(10000,12000)</f>
+        <v>11810</v>
       </c>
       <c r="BL87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11853</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11271</v>
       </c>
       <c r="BM87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11667</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10881</v>
       </c>
       <c r="BN87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10560</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10091</v>
       </c>
       <c r="BO87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11461</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10106</v>
       </c>
       <c r="BP87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10545</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10196</v>
       </c>
       <c r="BQ87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11728</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11463</v>
       </c>
       <c r="BR87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11768</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11568</v>
       </c>
       <c r="BS87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10158</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10978</v>
       </c>
       <c r="BT87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10692</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10219</v>
       </c>
       <c r="BU87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10233</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>10023</v>
       </c>
       <c r="BV87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>10839</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11958</v>
       </c>
       <c r="BW87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11430</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11941</v>
       </c>
       <c r="BX87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11573</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11703</v>
       </c>
       <c r="BY87" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>11973</v>
+        <f ca="1" t="shared" si="14"/>
+        <v>11043</v>
       </c>
       <c r="BZ87" s="8">
         <f ca="1">RANDBETWEEN(11500,14000)</f>
-        <v>11884</v>
+        <v>12047</v>
       </c>
       <c r="CA87" s="8">
-        <f t="shared" ref="CA87:CJ87" ca="1" si="15">RANDBETWEEN(11500,14000)</f>
-        <v>11816</v>
+        <f ca="1" t="shared" ref="CA87:CJ87" si="15">RANDBETWEEN(11500,14000)</f>
+        <v>13599</v>
       </c>
       <c r="CB87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13877</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>12187</v>
       </c>
       <c r="CC87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>12670</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>13422</v>
       </c>
       <c r="CD87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13664</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>13823</v>
       </c>
       <c r="CE87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13506</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>12281</v>
       </c>
       <c r="CF87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13324</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>12086</v>
       </c>
       <c r="CG87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13171</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>13173</v>
       </c>
       <c r="CH87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>12458</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>13747</v>
       </c>
       <c r="CI87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>11866</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>11901</v>
       </c>
       <c r="CJ87" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>13615</v>
+        <f ca="1" t="shared" si="15"/>
+        <v>11950</v>
       </c>
       <c r="CK87" s="8">
-        <f t="shared" ref="CK87:CT87" ca="1" si="16">RANDBETWEEN(11500,14000)</f>
-        <v>12024</v>
+        <f ca="1" t="shared" ref="CK87:CT87" si="16">RANDBETWEEN(11500,14000)</f>
+        <v>13566</v>
       </c>
       <c r="CL87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>13600</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>12301</v>
       </c>
       <c r="CM87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>13905</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>13518</v>
       </c>
       <c r="CN87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>13079</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>11751</v>
       </c>
       <c r="CO87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>11533</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>13311</v>
       </c>
       <c r="CP87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>12646</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>13284</v>
       </c>
       <c r="CQ87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>11648</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>12993</v>
       </c>
       <c r="CR87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>13508</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>11973</v>
       </c>
       <c r="CS87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>12762</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>11951</v>
       </c>
       <c r="CT87" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>12101</v>
+        <f ca="1" t="shared" si="16"/>
+        <v>13902</v>
       </c>
       <c r="CU87" s="8">
-        <f t="shared" ref="CU87:DI87" ca="1" si="17">RANDBETWEEN(11500,14000)</f>
-        <v>12933</v>
+        <f ca="1" t="shared" ref="CU87:DI87" si="17">RANDBETWEEN(11500,14000)</f>
+        <v>11596</v>
       </c>
       <c r="CV87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13378</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>12965</v>
       </c>
       <c r="CW87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13447</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13558</v>
       </c>
       <c r="CX87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13698</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13779</v>
       </c>
       <c r="CY87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>12859</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13356</v>
       </c>
       <c r="CZ87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>11882</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>11830</v>
       </c>
       <c r="DA87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>11932</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>12634</v>
       </c>
       <c r="DB87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13169</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>12486</v>
       </c>
       <c r="DC87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13744</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>12803</v>
       </c>
       <c r="DD87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>12984</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>11713</v>
       </c>
       <c r="DE87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>11664</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13894</v>
       </c>
       <c r="DF87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13401</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13517</v>
       </c>
       <c r="DG87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>12922</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13745</v>
       </c>
       <c r="DH87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13250</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>13870</v>
       </c>
       <c r="DI87" s="8">
-        <f t="shared" ca="1" si="17"/>
-        <v>13574</v>
+        <f ca="1" t="shared" si="17"/>
+        <v>12279</v>
       </c>
     </row>
-    <row r="88" spans="1:113" ht="15">
+    <row r="88" spans="1:113">
       <c r="A88" s="1" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F88" s="7">
         <f ca="1">RANDBETWEEN(10000,11000)</f>
-        <v>10798</v>
+        <v>10247</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" ref="G88:Q88" ca="1" si="18">RANDBETWEEN(10000,11000)</f>
-        <v>10251</v>
+        <f ca="1" t="shared" ref="G88:Q88" si="18">RANDBETWEEN(10000,11000)</f>
+        <v>10503</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10317</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10057</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10350</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10817</v>
       </c>
       <c r="J88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10185</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10325</v>
       </c>
       <c r="K88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10715</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10388</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10227</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10360</v>
       </c>
       <c r="M88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10788</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10071</v>
       </c>
       <c r="N88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10726</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10276</v>
       </c>
       <c r="O88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10989</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10293</v>
       </c>
       <c r="P88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10113</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10570</v>
       </c>
       <c r="Q88" s="7">
-        <f t="shared" ca="1" si="18"/>
-        <v>10787</v>
+        <f ca="1" t="shared" si="18"/>
+        <v>10087</v>
       </c>
       <c r="R88" s="7">
-        <f t="shared" ref="R88:AB88" ca="1" si="19">RANDBETWEEN(10000,11000)</f>
-        <v>10019</v>
+        <f ca="1" t="shared" ref="R88:AC88" si="19">RANDBETWEEN(10000,11000)</f>
+        <v>10911</v>
       </c>
       <c r="S88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10165</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10707</v>
       </c>
       <c r="T88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10227</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10349</v>
       </c>
       <c r="U88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10497</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10666</v>
       </c>
       <c r="V88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10396</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10296</v>
       </c>
       <c r="W88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10261</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10290</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10248</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10855</v>
       </c>
       <c r="Y88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10588</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10513</v>
       </c>
       <c r="Z88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10587</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10786</v>
       </c>
       <c r="AA88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10312</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10184</v>
       </c>
       <c r="AB88" s="7">
-        <f t="shared" ca="1" si="19"/>
-        <v>10447</v>
+        <f ca="1" t="shared" si="19"/>
+        <v>10057</v>
       </c>
       <c r="AC88" s="7">
         <f ca="1">RANDBETWEEN(11000,12000)</f>
-        <v>11233</v>
+        <v>11744</v>
       </c>
       <c r="AD88" s="7">
         <f ca="1">RANDBETWEEN(10000,11000)</f>
-        <v>10308</v>
+        <v>10498</v>
       </c>
       <c r="AE88" s="7">
-        <f t="shared" ref="AE88:AO88" ca="1" si="20">RANDBETWEEN(10000,11000)</f>
-        <v>10816</v>
+        <f ca="1" t="shared" ref="AE88:AO88" si="20">RANDBETWEEN(10000,11000)</f>
+        <v>10025</v>
       </c>
       <c r="AF88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10958</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10159</v>
       </c>
       <c r="AG88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10640</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10062</v>
       </c>
       <c r="AH88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10156</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10196</v>
       </c>
       <c r="AI88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10669</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10033</v>
       </c>
       <c r="AJ88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10358</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10350</v>
       </c>
       <c r="AK88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10513</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10331</v>
       </c>
       <c r="AL88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10199</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10045</v>
       </c>
       <c r="AM88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10341</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10164</v>
       </c>
       <c r="AN88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10346</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10440</v>
       </c>
       <c r="AO88" s="7">
-        <f t="shared" ca="1" si="20"/>
-        <v>10543</v>
+        <f ca="1" t="shared" si="20"/>
+        <v>10151</v>
       </c>
       <c r="AP88" s="7">
-        <f t="shared" ref="AP88:AY88" ca="1" si="21">RANDBETWEEN(10000,11000)</f>
-        <v>10846</v>
+        <f ca="1" t="shared" ref="AP88:AY88" si="21">RANDBETWEEN(10000,11000)</f>
+        <v>10022</v>
       </c>
       <c r="AQ88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10406</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10148</v>
       </c>
       <c r="AR88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10981</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10164</v>
       </c>
       <c r="AS88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10762</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10895</v>
       </c>
       <c r="AT88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10289</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10966</v>
       </c>
       <c r="AU88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10677</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10220</v>
       </c>
       <c r="AV88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10226</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10829</v>
       </c>
       <c r="AW88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10105</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10687</v>
       </c>
       <c r="AX88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10144</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10098</v>
       </c>
       <c r="AY88" s="7">
-        <f t="shared" ca="1" si="21"/>
-        <v>10440</v>
+        <f ca="1" t="shared" si="21"/>
+        <v>10108</v>
       </c>
       <c r="AZ88" s="7">
-        <f t="shared" ref="AZ88:BL88" ca="1" si="22">RANDBETWEEN(10000,11000)</f>
-        <v>10759</v>
+        <f ca="1" t="shared" ref="AZ88:BM88" si="22">RANDBETWEEN(10000,11000)</f>
+        <v>10676</v>
       </c>
       <c r="BA88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10944</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10258</v>
       </c>
       <c r="BB88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10268</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10719</v>
       </c>
       <c r="BC88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10139</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10491</v>
       </c>
       <c r="BD88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10083</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10051</v>
       </c>
       <c r="BE88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10003</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10806</v>
       </c>
       <c r="BF88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10421</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10113</v>
       </c>
       <c r="BG88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10484</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10955</v>
       </c>
       <c r="BH88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10896</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10522</v>
       </c>
       <c r="BI88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10975</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10736</v>
       </c>
       <c r="BJ88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10181</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10930</v>
       </c>
       <c r="BK88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10781</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10450</v>
       </c>
       <c r="BL88" s="7">
-        <f t="shared" ca="1" si="22"/>
-        <v>10431</v>
+        <f ca="1" t="shared" si="22"/>
+        <v>10047</v>
       </c>
       <c r="BM88" s="7">
         <f ca="1">RANDBETWEEN(13000,14000)</f>
-        <v>13719</v>
+        <v>13969</v>
       </c>
       <c r="BN88" s="7">
-        <f t="shared" ref="BN88:BW88" ca="1" si="23">RANDBETWEEN(13000,14000)</f>
-        <v>13791</v>
+        <f ca="1" t="shared" ref="BN88:BW88" si="23">RANDBETWEEN(13000,14000)</f>
+        <v>13944</v>
       </c>
       <c r="BO88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13956</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13111</v>
       </c>
       <c r="BP88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13316</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13965</v>
       </c>
       <c r="BQ88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13446</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13328</v>
       </c>
       <c r="BR88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13793</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13384</v>
       </c>
       <c r="BS88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13979</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13450</v>
       </c>
       <c r="BT88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13991</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13564</v>
       </c>
       <c r="BU88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13910</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13694</v>
       </c>
       <c r="BV88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13844</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13828</v>
       </c>
       <c r="BW88" s="7">
-        <f t="shared" ca="1" si="23"/>
-        <v>13778</v>
+        <f ca="1" t="shared" si="23"/>
+        <v>13344</v>
       </c>
       <c r="BX88" s="7">
-        <f t="shared" ref="BX88:CG88" ca="1" si="24">RANDBETWEEN(13000,14000)</f>
-        <v>13712</v>
+        <f ca="1" t="shared" ref="BX88:CG88" si="24">RANDBETWEEN(13000,14000)</f>
+        <v>13531</v>
       </c>
       <c r="BY88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13406</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13109</v>
       </c>
       <c r="BZ88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13799</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13667</v>
       </c>
       <c r="CA88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13272</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13300</v>
       </c>
       <c r="CB88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13060</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13414</v>
       </c>
       <c r="CC88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13079</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13478</v>
       </c>
       <c r="CD88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13489</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13660</v>
       </c>
       <c r="CE88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13021</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13967</v>
       </c>
       <c r="CF88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13312</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13493</v>
       </c>
       <c r="CG88" s="7">
-        <f t="shared" ca="1" si="24"/>
-        <v>13055</v>
+        <f ca="1" t="shared" si="24"/>
+        <v>13277</v>
       </c>
       <c r="CH88" s="7">
-        <f t="shared" ref="CH88:CV88" ca="1" si="25">RANDBETWEEN(13000,14000)</f>
-        <v>13475</v>
+        <f ca="1" t="shared" ref="CH88:CV88" si="25">RANDBETWEEN(13000,14000)</f>
+        <v>13197</v>
       </c>
       <c r="CI88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13349</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13966</v>
       </c>
       <c r="CJ88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13301</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13008</v>
       </c>
       <c r="CK88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13573</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13590</v>
       </c>
       <c r="CL88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13081</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13524</v>
       </c>
       <c r="CM88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13767</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13502</v>
       </c>
       <c r="CN88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13573</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13036</v>
       </c>
       <c r="CO88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13709</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13230</v>
       </c>
       <c r="CP88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13244</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13678</v>
       </c>
       <c r="CQ88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13554</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13645</v>
       </c>
       <c r="CR88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13561</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13365</v>
       </c>
       <c r="CS88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13195</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13525</v>
       </c>
       <c r="CT88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13681</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13225</v>
       </c>
       <c r="CU88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13215</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13130</v>
       </c>
       <c r="CV88" s="7">
-        <f t="shared" ca="1" si="25"/>
-        <v>13146</v>
+        <f ca="1" t="shared" si="25"/>
+        <v>13001</v>
       </c>
       <c r="CW88" s="7">
         <f ca="1">RANDBETWEEN(14000,16000)</f>
-        <v>15733</v>
+        <v>14514</v>
       </c>
       <c r="CX88" s="7">
-        <f t="shared" ref="CX88:DI88" ca="1" si="26">RANDBETWEEN(14000,16000)</f>
-        <v>15320</v>
+        <f ca="1" t="shared" ref="CX88:DI88" si="26">RANDBETWEEN(14000,16000)</f>
+        <v>14931</v>
       </c>
       <c r="CY88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>15321</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14971</v>
       </c>
       <c r="CZ88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14918</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14011</v>
       </c>
       <c r="DA88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>15467</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14705</v>
       </c>
       <c r="DB88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14763</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14985</v>
       </c>
       <c r="DC88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>15578</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14901</v>
       </c>
       <c r="DD88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14832</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14741</v>
       </c>
       <c r="DE88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14463</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14526</v>
       </c>
       <c r="DF88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>15109</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>15617</v>
       </c>
       <c r="DG88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14968</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14007</v>
       </c>
       <c r="DH88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14386</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>15132</v>
       </c>
       <c r="DI88" s="7">
-        <f t="shared" ca="1" si="26"/>
-        <v>14027</v>
+        <f ca="1" t="shared" si="26"/>
+        <v>14224</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DI88">
+  <sortState ref="A2:DI88">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>